--- a/Implementation/Python/experiment4matching.xlsx
+++ b/Implementation/Python/experiment4matching.xlsx
@@ -530,97 +530,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="L2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="N2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="P2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="R2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="T2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="V2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.6</v>
       </c>
-      <c r="H2" t="n">
+      <c r="X2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.7</v>
       </c>
-      <c r="I2" t="n">
+      <c r="Z2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1.8</v>
       </c>
-      <c r="J2" t="n">
+      <c r="AB2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC2" t="n">
         <v>1.9</v>
       </c>
-      <c r="K2" t="n">
+      <c r="AD2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AE2" t="n">
         <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -670,25 +670,25 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -765,13 +765,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>

--- a/Implementation/Python/experiment4matching.xlsx
+++ b/Implementation/Python/experiment4matching.xlsx
@@ -530,97 +530,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5</v>
+        <v>0.001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.55</v>
+        <v>0.0011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.0012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.65</v>
+        <v>0.0013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7</v>
+        <v>0.0014</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>0.0015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0.0016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.85</v>
+        <v>0.0017</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9</v>
+        <v>0.0018</v>
       </c>
       <c r="J2" t="n">
-        <v>0.95</v>
+        <v>0.0019</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="L2" t="n">
-        <v>1.05</v>
+        <v>0.0021</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>0.0022</v>
       </c>
       <c r="N2" t="n">
-        <v>1.15</v>
+        <v>0.0023</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>0.0024</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>0.0025</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.3</v>
+        <v>0.0026</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>0.0027</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0.0028</v>
       </c>
       <c r="T2" t="n">
-        <v>1.45</v>
+        <v>0.0029</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>0.003</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>0.0031</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>0.0032</v>
       </c>
       <c r="X2" t="n">
-        <v>1.65</v>
+        <v>0.0033</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.7</v>
+        <v>0.0034</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.75</v>
+        <v>0.0035</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.8</v>
+        <v>0.0036</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.85</v>
+        <v>0.0037</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.9</v>
+        <v>0.0038</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.95</v>
+        <v>0.0039</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="3">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>

--- a/Implementation/Python/experiment4matching.xlsx
+++ b/Implementation/Python/experiment4matching.xlsx
@@ -922,16 +922,16 @@
         <v>0.672</v>
       </c>
       <c r="E6" t="n">
-        <v>1.111</v>
+        <v>1.114</v>
       </c>
       <c r="F6" t="n">
-        <v>1.109</v>
+        <v>1.107</v>
       </c>
       <c r="G6" t="n">
         <v>1.244</v>
       </c>
       <c r="H6" t="n">
-        <v>1.252</v>
+        <v>1.249</v>
       </c>
       <c r="I6" t="n">
         <v>1.032</v>
@@ -952,7 +952,7 @@
         <v>0.227</v>
       </c>
       <c r="O6" t="n">
-        <v>0.148</v>
+        <v>0.151</v>
       </c>
       <c r="P6" t="n">
         <v>0.125</v>
@@ -979,7 +979,7 @@
         <v>0.005</v>
       </c>
       <c r="X6" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="Y6" t="n">
         <v>0.01</v>
@@ -997,7 +997,7 @@
         <v>0.003</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AE6" t="n">
         <v>0.006</v>
@@ -1017,16 +1017,16 @@
         <v>0.834</v>
       </c>
       <c r="E7" t="n">
-        <v>1.397</v>
+        <v>1.401</v>
       </c>
       <c r="F7" t="n">
-        <v>1.65</v>
+        <v>1.651</v>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="H7" t="n">
-        <v>1.603</v>
+        <v>1.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.626</v>
@@ -1044,7 +1044,7 @@
         <v>0.236</v>
       </c>
       <c r="N7" t="n">
-        <v>0.265</v>
+        <v>0.266</v>
       </c>
       <c r="O7" t="n">
         <v>0.159</v>
@@ -1053,7 +1053,7 @@
         <v>0.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="R7" t="n">
         <v>0.101</v>
@@ -1109,28 +1109,28 @@
         <v>0.86</v>
       </c>
       <c r="D8" t="n">
-        <v>1.548</v>
+        <v>1.543</v>
       </c>
       <c r="E8" t="n">
-        <v>1.626</v>
+        <v>1.623</v>
       </c>
       <c r="F8" t="n">
-        <v>2.039</v>
+        <v>2.035</v>
       </c>
       <c r="G8" t="n">
-        <v>2.162</v>
+        <v>2.164</v>
       </c>
       <c r="H8" t="n">
-        <v>2.135</v>
+        <v>2.138</v>
       </c>
       <c r="I8" t="n">
-        <v>1.937</v>
+        <v>1.935</v>
       </c>
       <c r="J8" t="n">
         <v>1.399</v>
       </c>
       <c r="K8" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="L8" t="n">
         <v>0.482</v>
@@ -1148,7 +1148,7 @@
         <v>0.161</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="R8" t="n">
         <v>0.106</v>
@@ -1204,25 +1204,25 @@
         <v>0.994</v>
       </c>
       <c r="D9" t="n">
-        <v>1.757</v>
+        <v>1.749</v>
       </c>
       <c r="E9" t="n">
-        <v>2.309</v>
+        <v>2.308</v>
       </c>
       <c r="F9" t="n">
-        <v>2.523</v>
+        <v>2.518</v>
       </c>
       <c r="G9" t="n">
-        <v>2.613</v>
+        <v>2.607</v>
       </c>
       <c r="H9" t="n">
         <v>2.502</v>
       </c>
       <c r="I9" t="n">
-        <v>2.149</v>
+        <v>2.147</v>
       </c>
       <c r="J9" t="n">
-        <v>1.567</v>
+        <v>1.564</v>
       </c>
       <c r="K9" t="n">
         <v>0.518</v>
@@ -1273,7 +1273,7 @@
         <v>0.023</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="AB9" t="n">
         <v>0.011</v>
@@ -1299,19 +1299,19 @@
         <v>0.92</v>
       </c>
       <c r="D10" t="n">
-        <v>1.879</v>
+        <v>1.884</v>
       </c>
       <c r="E10" t="n">
         <v>2.527</v>
       </c>
       <c r="F10" t="n">
-        <v>2.824</v>
+        <v>2.83</v>
       </c>
       <c r="G10" t="n">
-        <v>2.885</v>
+        <v>2.884</v>
       </c>
       <c r="H10" t="n">
-        <v>2.909</v>
+        <v>2.916</v>
       </c>
       <c r="I10" t="n">
         <v>2.433</v>
@@ -1329,7 +1329,7 @@
         <v>0.315</v>
       </c>
       <c r="N10" t="n">
-        <v>0.254</v>
+        <v>0.255</v>
       </c>
       <c r="O10" t="n">
         <v>0.18</v>
@@ -1338,7 +1338,7 @@
         <v>0.158</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.171</v>
+        <v>0.169</v>
       </c>
       <c r="R10" t="n">
         <v>0.117</v>
@@ -1391,28 +1391,28 @@
         <v>1.005</v>
       </c>
       <c r="C11" t="n">
-        <v>1.882</v>
+        <v>1.885</v>
       </c>
       <c r="D11" t="n">
-        <v>2.779</v>
+        <v>2.783</v>
       </c>
       <c r="E11" t="n">
-        <v>3.262</v>
+        <v>3.25</v>
       </c>
       <c r="F11" t="n">
-        <v>3.482</v>
+        <v>3.459</v>
       </c>
       <c r="G11" t="n">
-        <v>3.398</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.105</v>
+        <v>3.11</v>
       </c>
       <c r="I11" t="n">
-        <v>2.666</v>
+        <v>2.664</v>
       </c>
       <c r="J11" t="n">
-        <v>1.792</v>
+        <v>1.793</v>
       </c>
       <c r="K11" t="n">
         <v>0.603</v>
@@ -1424,7 +1424,7 @@
         <v>0.235</v>
       </c>
       <c r="N11" t="n">
-        <v>0.197</v>
+        <v>0.198</v>
       </c>
       <c r="O11" t="n">
         <v>0.194</v>
@@ -1433,7 +1433,7 @@
         <v>0.155</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.144</v>
+        <v>0.143</v>
       </c>
       <c r="R11" t="n">
         <v>0.121</v>
@@ -1486,28 +1486,28 @@
         <v>1.018</v>
       </c>
       <c r="C12" t="n">
-        <v>2.101</v>
+        <v>2.103</v>
       </c>
       <c r="D12" t="n">
-        <v>2.859</v>
+        <v>2.818</v>
       </c>
       <c r="E12" t="n">
-        <v>3.468</v>
+        <v>3.456</v>
       </c>
       <c r="F12" t="n">
-        <v>3.779</v>
+        <v>3.783</v>
       </c>
       <c r="G12" t="n">
-        <v>3.854</v>
+        <v>3.849</v>
       </c>
       <c r="H12" t="n">
-        <v>3.741</v>
+        <v>3.729</v>
       </c>
       <c r="I12" t="n">
-        <v>3.479</v>
+        <v>3.477</v>
       </c>
       <c r="J12" t="n">
-        <v>2.771</v>
+        <v>2.773</v>
       </c>
       <c r="K12" t="n">
         <v>0.646</v>
@@ -1519,10 +1519,10 @@
         <v>0.231</v>
       </c>
       <c r="N12" t="n">
-        <v>0.232</v>
+        <v>0.23</v>
       </c>
       <c r="O12" t="n">
-        <v>0.166</v>
+        <v>0.167</v>
       </c>
       <c r="P12" t="n">
         <v>0.167</v>
@@ -1531,13 +1531,13 @@
         <v>0.156</v>
       </c>
       <c r="R12" t="n">
-        <v>0.133</v>
+        <v>0.135</v>
       </c>
       <c r="S12" t="n">
         <v>0.102</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="U12" t="n">
         <v>0.007</v>
@@ -1581,43 +1581,43 @@
         <v>0.955</v>
       </c>
       <c r="C13" t="n">
-        <v>1.953</v>
+        <v>1.959</v>
       </c>
       <c r="D13" t="n">
-        <v>2.941</v>
+        <v>2.954</v>
       </c>
       <c r="E13" t="n">
-        <v>3.718</v>
+        <v>3.742</v>
       </c>
       <c r="F13" t="n">
-        <v>4.361</v>
+        <v>4.331</v>
       </c>
       <c r="G13" t="n">
-        <v>4.358</v>
+        <v>4.366</v>
       </c>
       <c r="H13" t="n">
-        <v>4.183</v>
+        <v>4.191</v>
       </c>
       <c r="I13" t="n">
-        <v>3.665</v>
+        <v>3.664</v>
       </c>
       <c r="J13" t="n">
-        <v>2.939</v>
+        <v>2.94</v>
       </c>
       <c r="K13" t="n">
         <v>0.642</v>
       </c>
       <c r="L13" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="M13" t="n">
-        <v>0.293</v>
+        <v>0.294</v>
       </c>
       <c r="N13" t="n">
         <v>0.234</v>
       </c>
       <c r="O13" t="n">
-        <v>0.229</v>
+        <v>0.23</v>
       </c>
       <c r="P13" t="n">
         <v>0.159</v>
@@ -1626,10 +1626,10 @@
         <v>0.187</v>
       </c>
       <c r="R13" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="S13" t="n">
         <v>0.126</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.125</v>
       </c>
       <c r="T13" t="n">
         <v>0.096</v>
@@ -1676,55 +1676,55 @@
         <v>0.968</v>
       </c>
       <c r="C14" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="D14" t="n">
-        <v>3.091</v>
+        <v>3.086</v>
       </c>
       <c r="E14" t="n">
-        <v>4.563</v>
+        <v>4.568</v>
       </c>
       <c r="F14" t="n">
-        <v>4.619</v>
+        <v>4.666</v>
       </c>
       <c r="G14" t="n">
-        <v>4.921</v>
+        <v>4.92</v>
       </c>
       <c r="H14" t="n">
-        <v>4.364</v>
+        <v>4.359</v>
       </c>
       <c r="I14" t="n">
-        <v>3.858</v>
+        <v>3.851</v>
       </c>
       <c r="J14" t="n">
-        <v>3.029</v>
+        <v>3.027</v>
       </c>
       <c r="K14" t="n">
         <v>0.649</v>
       </c>
       <c r="L14" t="n">
-        <v>0.425</v>
+        <v>0.422</v>
       </c>
       <c r="M14" t="n">
         <v>0.301</v>
       </c>
       <c r="N14" t="n">
-        <v>0.246</v>
+        <v>0.247</v>
       </c>
       <c r="O14" t="n">
         <v>0.21</v>
       </c>
       <c r="P14" t="n">
-        <v>0.184</v>
+        <v>0.187</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.173</v>
+        <v>0.175</v>
       </c>
       <c r="R14" t="n">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="S14" t="n">
-        <v>0.148</v>
+        <v>0.152</v>
       </c>
       <c r="T14" t="n">
         <v>0.148</v>
@@ -1771,52 +1771,52 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>2.125</v>
+        <v>2.116</v>
       </c>
       <c r="D15" t="n">
-        <v>4.094</v>
+        <v>4.057</v>
       </c>
       <c r="E15" t="n">
-        <v>4.875</v>
+        <v>4.865</v>
       </c>
       <c r="F15" t="n">
-        <v>5.272</v>
+        <v>5.3</v>
       </c>
       <c r="G15" t="n">
-        <v>5.357</v>
+        <v>5.336</v>
       </c>
       <c r="H15" t="n">
-        <v>4.968</v>
+        <v>4.987</v>
       </c>
       <c r="I15" t="n">
-        <v>4.03</v>
+        <v>4.035</v>
       </c>
       <c r="J15" t="n">
-        <v>3.225</v>
+        <v>3.221</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="M15" t="n">
-        <v>0.334</v>
+        <v>0.337</v>
       </c>
       <c r="N15" t="n">
-        <v>0.199</v>
+        <v>0.203</v>
       </c>
       <c r="O15" t="n">
-        <v>0.278</v>
+        <v>0.279</v>
       </c>
       <c r="P15" t="n">
         <v>0.211</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="R15" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="S15" t="n">
         <v>0.123</v>
@@ -1866,31 +1866,31 @@
         <v>0.973</v>
       </c>
       <c r="C16" t="n">
-        <v>3.528</v>
+        <v>3.513</v>
       </c>
       <c r="D16" t="n">
-        <v>4.289</v>
+        <v>4.275</v>
       </c>
       <c r="E16" t="n">
-        <v>5.479</v>
+        <v>5.462</v>
       </c>
       <c r="F16" t="n">
-        <v>5.643</v>
+        <v>5.631</v>
       </c>
       <c r="G16" t="n">
-        <v>5.622</v>
+        <v>5.626</v>
       </c>
       <c r="H16" t="n">
-        <v>5.364</v>
+        <v>5.365</v>
       </c>
       <c r="I16" t="n">
-        <v>4.229</v>
+        <v>4.228</v>
       </c>
       <c r="J16" t="n">
         <v>3.284</v>
       </c>
       <c r="K16" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="L16" t="n">
         <v>0.435</v>
@@ -1899,22 +1899,22 @@
         <v>0.296</v>
       </c>
       <c r="N16" t="n">
-        <v>0.238</v>
+        <v>0.241</v>
       </c>
       <c r="O16" t="n">
-        <v>0.224</v>
+        <v>0.226</v>
       </c>
       <c r="P16" t="n">
-        <v>0.219</v>
+        <v>0.213</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="R16" t="n">
         <v>0.18</v>
       </c>
       <c r="S16" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="T16" t="n">
         <v>0.105</v>
@@ -1961,34 +1961,34 @@
         <v>0.944</v>
       </c>
       <c r="C17" t="n">
-        <v>3.355</v>
+        <v>3.368</v>
       </c>
       <c r="D17" t="n">
-        <v>4.52</v>
+        <v>4.555</v>
       </c>
       <c r="E17" t="n">
-        <v>5.765</v>
+        <v>5.772</v>
       </c>
       <c r="F17" t="n">
-        <v>6.235</v>
+        <v>6.294</v>
       </c>
       <c r="G17" t="n">
-        <v>6.107</v>
+        <v>6.132</v>
       </c>
       <c r="H17" t="n">
-        <v>5.544</v>
+        <v>5.534</v>
       </c>
       <c r="I17" t="n">
-        <v>5.124</v>
+        <v>5.132</v>
       </c>
       <c r="J17" t="n">
-        <v>3.344</v>
+        <v>3.343</v>
       </c>
       <c r="K17" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="L17" t="n">
-        <v>0.437</v>
+        <v>0.44</v>
       </c>
       <c r="M17" t="n">
         <v>0.272</v>
@@ -1997,16 +1997,16 @@
         <v>0.283</v>
       </c>
       <c r="O17" t="n">
-        <v>0.304</v>
+        <v>0.305</v>
       </c>
       <c r="P17" t="n">
-        <v>0.188</v>
+        <v>0.185</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="R17" t="n">
-        <v>0.197</v>
+        <v>0.195</v>
       </c>
       <c r="S17" t="n">
         <v>0.164</v>
@@ -2056,55 +2056,55 @@
         <v>1.051</v>
       </c>
       <c r="C18" t="n">
-        <v>3.651</v>
+        <v>3.596</v>
       </c>
       <c r="D18" t="n">
-        <v>5.356</v>
+        <v>5.39</v>
       </c>
       <c r="E18" t="n">
-        <v>6.108</v>
+        <v>6.166</v>
       </c>
       <c r="F18" t="n">
-        <v>6.752</v>
+        <v>6.731</v>
       </c>
       <c r="G18" t="n">
-        <v>6.506</v>
+        <v>6.532</v>
       </c>
       <c r="H18" t="n">
-        <v>6.184</v>
+        <v>6.155</v>
       </c>
       <c r="I18" t="n">
-        <v>5.326</v>
+        <v>5.345</v>
       </c>
       <c r="J18" t="n">
-        <v>3.489</v>
+        <v>3.492</v>
       </c>
       <c r="K18" t="n">
         <v>0.804</v>
       </c>
       <c r="L18" t="n">
-        <v>0.527</v>
+        <v>0.528</v>
       </c>
       <c r="M18" t="n">
-        <v>0.288</v>
+        <v>0.292</v>
       </c>
       <c r="N18" t="n">
-        <v>0.257</v>
+        <v>0.259</v>
       </c>
       <c r="O18" t="n">
-        <v>0.202</v>
+        <v>0.208</v>
       </c>
       <c r="P18" t="n">
-        <v>0.176</v>
+        <v>0.178</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.237</v>
+        <v>0.232</v>
       </c>
       <c r="R18" t="n">
-        <v>0.198</v>
+        <v>0.193</v>
       </c>
       <c r="S18" t="n">
-        <v>0.165</v>
+        <v>0.159</v>
       </c>
       <c r="T18" t="n">
         <v>0.125</v>
@@ -2151,55 +2151,55 @@
         <v>1.085</v>
       </c>
       <c r="C19" t="n">
-        <v>3.655</v>
+        <v>3.656</v>
       </c>
       <c r="D19" t="n">
-        <v>5.748</v>
+        <v>5.721</v>
       </c>
       <c r="E19" t="n">
-        <v>6.806</v>
+        <v>6.88</v>
       </c>
       <c r="F19" t="n">
-        <v>7.085</v>
+        <v>7.13</v>
       </c>
       <c r="G19" t="n">
         <v>6.965</v>
       </c>
       <c r="H19" t="n">
-        <v>6.589</v>
+        <v>6.595</v>
       </c>
       <c r="I19" t="n">
-        <v>5.439</v>
+        <v>5.444</v>
       </c>
       <c r="J19" t="n">
-        <v>3.686</v>
+        <v>3.688</v>
       </c>
       <c r="K19" t="n">
         <v>0.838</v>
       </c>
       <c r="L19" t="n">
-        <v>0.501</v>
+        <v>0.505</v>
       </c>
       <c r="M19" t="n">
         <v>0.371</v>
       </c>
       <c r="N19" t="n">
-        <v>0.289</v>
+        <v>0.291</v>
       </c>
       <c r="O19" t="n">
-        <v>0.261</v>
+        <v>0.262</v>
       </c>
       <c r="P19" t="n">
-        <v>0.225</v>
+        <v>0.222</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.222</v>
+        <v>0.237</v>
       </c>
       <c r="R19" t="n">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
       <c r="S19" t="n">
-        <v>0.164</v>
+        <v>0.167</v>
       </c>
       <c r="T19" t="n">
         <v>0.109</v>
@@ -2246,31 +2246,31 @@
         <v>1.004</v>
       </c>
       <c r="C20" t="n">
-        <v>3.643</v>
+        <v>3.636</v>
       </c>
       <c r="D20" t="n">
-        <v>5.966</v>
+        <v>5.992</v>
       </c>
       <c r="E20" t="n">
-        <v>7.161</v>
+        <v>7.145</v>
       </c>
       <c r="F20" t="n">
-        <v>7.573</v>
+        <v>7.574</v>
       </c>
       <c r="G20" t="n">
-        <v>7.525</v>
+        <v>7.519</v>
       </c>
       <c r="H20" t="n">
-        <v>6.695</v>
+        <v>6.715</v>
       </c>
       <c r="I20" t="n">
-        <v>5.653</v>
+        <v>5.636</v>
       </c>
       <c r="J20" t="n">
-        <v>3.678</v>
+        <v>3.677</v>
       </c>
       <c r="K20" t="n">
-        <v>0.825</v>
+        <v>0.824</v>
       </c>
       <c r="L20" t="n">
         <v>0.505</v>
@@ -2279,25 +2279,25 @@
         <v>0.377</v>
       </c>
       <c r="N20" t="n">
-        <v>0.296</v>
+        <v>0.299</v>
       </c>
       <c r="O20" t="n">
-        <v>0.252</v>
+        <v>0.256</v>
       </c>
       <c r="P20" t="n">
-        <v>0.256</v>
+        <v>0.245</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.228</v>
+        <v>0.238</v>
       </c>
       <c r="R20" t="n">
-        <v>0.194</v>
+        <v>0.195</v>
       </c>
       <c r="S20" t="n">
-        <v>0.164</v>
+        <v>0.162</v>
       </c>
       <c r="T20" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="U20" t="n">
         <v>0.008</v>
@@ -2338,61 +2338,61 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>2.307</v>
+        <v>2.282</v>
       </c>
       <c r="C21" t="n">
-        <v>4.912</v>
+        <v>4.922</v>
       </c>
       <c r="D21" t="n">
-        <v>6.913</v>
+        <v>6.901</v>
       </c>
       <c r="E21" t="n">
-        <v>7.756</v>
+        <v>7.753</v>
       </c>
       <c r="F21" t="n">
-        <v>8.098000000000001</v>
+        <v>8.086</v>
       </c>
       <c r="G21" t="n">
-        <v>7.765</v>
+        <v>7.775</v>
       </c>
       <c r="H21" t="n">
-        <v>7.021</v>
+        <v>7.014</v>
       </c>
       <c r="I21" t="n">
-        <v>5.804</v>
+        <v>5.798</v>
       </c>
       <c r="J21" t="n">
-        <v>3.835</v>
+        <v>3.834</v>
       </c>
       <c r="K21" t="n">
-        <v>0.834</v>
+        <v>0.838</v>
       </c>
       <c r="L21" t="n">
-        <v>0.44</v>
+        <v>0.436</v>
       </c>
       <c r="M21" t="n">
-        <v>0.343</v>
+        <v>0.338</v>
       </c>
       <c r="N21" t="n">
-        <v>0.282</v>
+        <v>0.287</v>
       </c>
       <c r="O21" t="n">
-        <v>0.253</v>
+        <v>0.244</v>
       </c>
       <c r="P21" t="n">
-        <v>0.237</v>
+        <v>0.234</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.255</v>
+        <v>0.249</v>
       </c>
       <c r="R21" t="n">
-        <v>0.184</v>
+        <v>0.181</v>
       </c>
       <c r="S21" t="n">
-        <v>0.187</v>
+        <v>0.185</v>
       </c>
       <c r="T21" t="n">
-        <v>0.145</v>
+        <v>0.143</v>
       </c>
       <c r="U21" t="n">
         <v>0.002</v>
@@ -2407,19 +2407,19 @@
         <v>0.022</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="Z21" t="n">
         <v>0.02</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="AB21" t="n">
         <v>0.011</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>0.008999999999999999</v>
